--- a/Exam/exam/Section 1_2nd grading.xlsx
+++ b/Exam/exam/Section 1_2nd grading.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liumanni/Documents/CSE 220/cse220_2020fall/midterm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyunha/Documents/GitHub/cse220_2020fall/Exam/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75CF65B-2B0C-224D-BF79-53C7E44F9B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761F2593-8CF9-1745-A996-3C499683225D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3750,10 +3750,10 @@
         <v>88</v>
       </c>
       <c r="C32" s="1">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="D32" s="4">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1">
         <v>5</v>
